--- a/任务目录汇总表.xlsx
+++ b/任务目录汇总表.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualE\Lxproject\004.任务目录生成器\GitlabProject\lx4-tdr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EF8B78-DD93-42D9-8C13-416F9BB114A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0201077-EDC9-44A8-9000-2D61A18D01DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="84" yWindow="600" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="客户问题" sheetId="2" r:id="rId2"/>
     <sheet name="内部测试" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -66,13 +66,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -405,7 +404,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -423,10 +422,10 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -469,7 +468,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
